--- a/5) Март/911/911 Разработка моб приложений_март.xlsx
+++ b/5) Март/911/911 Разработка моб приложений_март.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\5) Март\911\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F313CBEB-1BAC-46C0-A1BA-AE25A606AC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558F481-8A20-4BCE-81AE-A3E7005F52EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="48">
   <si>
     <t>Александров Никита</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Лекция 3.10</t>
+  </si>
+  <si>
+    <t>Практика 2.13</t>
+  </si>
+  <si>
+    <t>Практика 3.14</t>
+  </si>
+  <si>
+    <t>Практика 3.15</t>
+  </si>
+  <si>
+    <t>Практика 3.16</t>
   </si>
 </sst>
 </file>
@@ -557,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,15 +581,15 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
     <col min="17" max="17" width="14.140625" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" customWidth="1"/>
@@ -587,11 +599,13 @@
     <col min="22" max="22" width="11.42578125" customWidth="1"/>
     <col min="23" max="23" width="12.5703125" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" customWidth="1"/>
     <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" customWidth="1"/>
-    <col min="29" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -1829,12 +1843,24 @@
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
       <c r="H33" t="s">
         <v>39</v>
       </c>
@@ -1844,18 +1870,36 @@
       <c r="J33" t="s">
         <v>39</v>
       </c>
+      <c r="K33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
       <c r="M33" t="s">
         <v>40</v>
       </c>
       <c r="N33" t="s">
         <v>40</v>
       </c>
+      <c r="O33" t="s">
+        <v>45</v>
+      </c>
       <c r="P33" t="s">
         <v>40</v>
       </c>
       <c r="Q33" t="s">
         <v>41</v>
       </c>
+      <c r="R33" t="s">
+        <v>46</v>
+      </c>
+      <c r="S33" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" t="s">
+        <v>46</v>
+      </c>
       <c r="U33" t="s">
         <v>41</v>
       </c>
@@ -1868,6 +1912,12 @@
       <c r="X33" t="s">
         <v>42</v>
       </c>
+      <c r="Y33" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>47</v>
+      </c>
       <c r="AA33" t="s">
         <v>42</v>
       </c>
@@ -1876,6 +1926,9 @@
       </c>
       <c r="AC33" t="s">
         <v>43</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>47</v>
       </c>
       <c r="AE33" t="s">
         <v>43</v>
